--- a/excel_upload/template/template.xlsx
+++ b/excel_upload/template/template.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C_wokspace\v7_bug_count_flask\excel_upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\software\C_workspace\pycharm_64\bugcount_flask\excel_upload\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368EF490-EFD5-4A57-9694-4A96207B914B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012471DF-146E-43F8-918B-3ADB31F7ABA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="备注" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,85 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="107">
-  <si>
-    <t>bug_submit_date</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>test_version</t>
-  </si>
-  <si>
-    <t>bug_description</t>
-  </si>
-  <si>
-    <t>severity_level</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>bug_difficulty</t>
-  </si>
-  <si>
-    <t>bug_status</t>
-  </si>
-  <si>
-    <t>bug_close_date</t>
-  </si>
-  <si>
-    <t>close_version</t>
-  </si>
-  <si>
-    <t>cause_analysis</t>
-  </si>
-  <si>
-    <t>bug_img</t>
-  </si>
-  <si>
-    <t>intermediate_situation</t>
-  </si>
-  <si>
-    <t>developer</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>first_bug_regression_date</t>
-  </si>
-  <si>
-    <t>first_bug_regression_status</t>
-  </si>
-  <si>
-    <t>first_bug_regression_remark</t>
-  </si>
-  <si>
-    <t>second_bug_regression_date</t>
-  </si>
-  <si>
-    <t>second_bug_regression_status</t>
-  </si>
-  <si>
-    <t>second_bug_regression_remark</t>
-  </si>
-  <si>
-    <t>third_bug_regression_date</t>
-  </si>
-  <si>
-    <t>third_bug_regression_status</t>
-  </si>
-  <si>
-    <t>third_bug_regression_remark</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
   <si>
     <t>icss</t>
   </si>
@@ -129,18 +52,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>第一次备注</t>
-  </si>
-  <si>
-    <t>第二次备注</t>
-  </si>
-  <si>
-    <t>第三次备注</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
     <t>icss_disp_20200109</t>
   </si>
   <si>
@@ -150,9 +61,6 @@
     <t>/home/bug_count/2.png</t>
   </si>
   <si>
-    <t>1810</t>
-  </si>
-  <si>
     <t>icss_disp_20200110</t>
   </si>
   <si>
@@ -162,9 +70,6 @@
     <t>/home/bug_count/3.png</t>
   </si>
   <si>
-    <t>1811</t>
-  </si>
-  <si>
     <t>icss_disp_20200111</t>
   </si>
   <si>
@@ -174,9 +79,6 @@
     <t>/home/bug_count/4.png</t>
   </si>
   <si>
-    <t>1812</t>
-  </si>
-  <si>
     <t>icss_disp_20200112</t>
   </si>
   <si>
@@ -186,9 +88,6 @@
     <t>/home/bug_count/5.png</t>
   </si>
   <si>
-    <t>1813</t>
-  </si>
-  <si>
     <t>icss_disp_20200113</t>
   </si>
   <si>
@@ -198,9 +97,6 @@
     <t>/home/bug_count/6.png</t>
   </si>
   <si>
-    <t>1814</t>
-  </si>
-  <si>
     <t>icss_disp_20200114</t>
   </si>
   <si>
@@ -210,9 +106,6 @@
     <t>/home/bug_count/7.png</t>
   </si>
   <si>
-    <t>1815</t>
-  </si>
-  <si>
     <t>icss_disp_20200115</t>
   </si>
   <si>
@@ -222,9 +115,6 @@
     <t>/home/bug_count/8.png</t>
   </si>
   <si>
-    <t>1816</t>
-  </si>
-  <si>
     <t>icss_disp_20200116</t>
   </si>
   <si>
@@ -234,9 +124,6 @@
     <t>/home/bug_count/9.png</t>
   </si>
   <si>
-    <t>1817</t>
-  </si>
-  <si>
     <t>icss_disp_20200117</t>
   </si>
   <si>
@@ -246,9 +133,6 @@
     <t>/home/bug_count/10.png</t>
   </si>
   <si>
-    <t>1818</t>
-  </si>
-  <si>
     <t>icss_disp_20200118</t>
   </si>
   <si>
@@ -258,9 +142,6 @@
     <t>/home/bug_count/11.png</t>
   </si>
   <si>
-    <t>1819</t>
-  </si>
-  <si>
     <t>icss_disp_20200119</t>
   </si>
   <si>
@@ -270,9 +151,6 @@
     <t>/home/bug_count/12.png</t>
   </si>
   <si>
-    <t>1820</t>
-  </si>
-  <si>
     <t>icss_disp_20200120</t>
   </si>
   <si>
@@ -282,9 +160,6 @@
     <t>/home/bug_count/13.png</t>
   </si>
   <si>
-    <t>1821</t>
-  </si>
-  <si>
     <t>icss_disp_20200121</t>
   </si>
   <si>
@@ -294,9 +169,6 @@
     <t>/home/bug_count/14.png</t>
   </si>
   <si>
-    <t>1822</t>
-  </si>
-  <si>
     <t>icss_disp_20200122</t>
   </si>
   <si>
@@ -347,6 +219,165 @@
   </si>
   <si>
     <t>2020-01-15</t>
+  </si>
+  <si>
+    <t>字段解释</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitterindex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交人标识符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>组成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目-测试人代号-序号(用户自己生成)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-GYX-17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示:k项目-高宇璇-该项目的第17个bug</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-GYX-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-GYX-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-GYX-3</t>
+  </si>
+  <si>
+    <t>K-GYX-4</t>
+  </si>
+  <si>
+    <t>K-GYX-5</t>
+  </si>
+  <si>
+    <t>K-GYX-6</t>
+  </si>
+  <si>
+    <t>K-GYX-7</t>
+  </si>
+  <si>
+    <t>K-GYX-8</t>
+  </si>
+  <si>
+    <t>K-GYX-9</t>
+  </si>
+  <si>
+    <t>K-GYX-10</t>
+  </si>
+  <si>
+    <t>K-GYX-11</t>
+  </si>
+  <si>
+    <t>K-GYX-12</t>
+  </si>
+  <si>
+    <t>K-GYX-13</t>
+  </si>
+  <si>
+    <t>K-GYX-14</t>
+  </si>
+  <si>
+    <t>K-GYX-15</t>
+  </si>
+  <si>
+    <t>提交日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试版本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭版本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重开次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交者索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -354,8 +385,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -465,9 +496,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -770,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -785,96 +816,82 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
+        <v>97</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1808</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5">
         <v>3</v>
@@ -889,69 +906,57 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>92</v>
+        <v>7</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
       </c>
       <c r="R2" s="7">
         <v>1</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1808</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5">
         <v>3</v>
@@ -966,69 +971,57 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>93</v>
+        <v>7</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>2</v>
       </c>
       <c r="R3" s="7">
         <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" s="2">
-        <v>2</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="X3" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1808</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
@@ -1043,69 +1036,57 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>94</v>
+        <v>7</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>3</v>
       </c>
       <c r="R4" s="7">
         <v>3</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U4" s="2">
-        <v>3</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="X4" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1808</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
@@ -1120,69 +1101,57 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>95</v>
+        <v>7</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>4</v>
       </c>
       <c r="R5" s="7">
         <v>4</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U5" s="2">
-        <v>4</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X5" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1808</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5">
         <v>3</v>
@@ -1197,69 +1166,57 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>5</v>
       </c>
       <c r="R6" s="7">
         <v>5</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U6" s="2">
-        <v>5</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X6" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="2"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1808</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
@@ -1274,69 +1231,57 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>97</v>
+        <v>7</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>6</v>
       </c>
       <c r="R7" s="7">
         <v>6</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" s="2">
-        <v>6</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X7" s="6">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1808</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5">
         <v>3</v>
@@ -1351,69 +1296,57 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>98</v>
+        <v>7</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>7</v>
       </c>
       <c r="R8" s="7">
         <v>7</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="U8" s="2">
-        <v>7</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" s="6">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1808</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
@@ -1428,69 +1361,57 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>8</v>
       </c>
       <c r="R9" s="7">
         <v>8</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="U9" s="2">
-        <v>8</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X9" s="6">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1808</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F10" s="5">
         <v>3</v>
@@ -1505,69 +1426,57 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>9</v>
       </c>
       <c r="R10" s="7">
         <v>9</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" s="2">
-        <v>9</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="X10" s="6">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1808</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5">
         <v>3</v>
@@ -1582,69 +1491,57 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>10</v>
       </c>
       <c r="R11" s="7">
         <v>10</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U11" s="2">
-        <v>10</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="X11" s="6">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1808</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
@@ -1659,69 +1556,57 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>11</v>
       </c>
       <c r="R12" s="7">
         <v>11</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U12" s="2">
-        <v>11</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="X12" s="6">
-        <v>11</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1808</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
@@ -1736,69 +1621,57 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>12</v>
       </c>
       <c r="R13" s="7">
         <v>12</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U13" s="2">
-        <v>12</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="X13" s="6">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1808</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5">
         <v>3</v>
@@ -1813,69 +1686,57 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>13</v>
       </c>
       <c r="R14" s="7">
         <v>13</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U14" s="2">
-        <v>13</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="X14" s="6">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1808</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5">
         <v>3</v>
@@ -1890,69 +1751,57 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>105</v>
+        <v>7</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>14</v>
       </c>
       <c r="R15" s="7">
         <v>14</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U15" s="2">
-        <v>14</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X15" s="6">
-        <v>14</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1808</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F16" s="5">
         <v>3</v>
@@ -1967,57 +1816,100 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>106</v>
+        <v>7</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1</v>
       </c>
       <c r="R16" s="7">
         <v>1</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273987B4-AC96-4F79-AB77-738CA38170C1}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_upload/template/template.xlsx
+++ b/excel_upload/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\software\C_workspace\pycharm_64\bugcount_flask\excel_upload\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012471DF-146E-43F8-918B-3ADB31F7ABA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C20E69-9E67-467E-A900-616D1953A714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="114">
   <si>
     <t>icss</t>
   </si>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>submitterindex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>字段</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -377,6 +373,38 @@
   </si>
   <si>
     <t>提交者索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitterindex(提交者索引)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 必须在Sheet1中编辑，目前系统只识别Sheet1中的内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式-提交者索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式-项目名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式-开发者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式-序号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GYX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -440,12 +468,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -488,7 +522,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -499,6 +533,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -801,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,70 +853,80 @@
     <col min="1" max="1" width="32.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="17" max="17" width="9" style="3"/>
-    <col min="20" max="20" width="9" style="3"/>
+    <col min="20" max="20" width="15.875" style="9" customWidth="1"/>
     <col min="23" max="23" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="T1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="X1" s="6"/>
       <c r="Y1" s="2"/>
     </row>
@@ -933,12 +986,21 @@
         <v>1</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="T2" s="10" t="str">
+        <f>U2&amp;"-"&amp;V2&amp;"-"&amp;W2</f>
+        <v>K-GYX-1</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W2" s="7">
+        <v>1</v>
+      </c>
       <c r="X2" s="6"/>
       <c r="Y2" s="2"/>
     </row>
@@ -998,12 +1060,21 @@
         <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="T3" s="10" t="str">
+        <f t="shared" ref="T3:T16" si="0">U3&amp;"-"&amp;V3&amp;"-"&amp;W3</f>
+        <v>K-GYX-2</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W3" s="7">
+        <v>2</v>
+      </c>
       <c r="X3" s="6"/>
       <c r="Y3" s="2"/>
     </row>
@@ -1063,12 +1134,21 @@
         <v>3</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="T4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-3</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W4" s="7">
+        <v>3</v>
+      </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="2"/>
     </row>
@@ -1128,12 +1208,21 @@
         <v>4</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="T5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-4</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W5" s="7">
+        <v>4</v>
+      </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="2"/>
     </row>
@@ -1193,12 +1282,21 @@
         <v>5</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="T6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-5</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W6" s="7">
+        <v>5</v>
+      </c>
       <c r="X6" s="6"/>
       <c r="Y6" s="2"/>
     </row>
@@ -1258,12 +1356,21 @@
         <v>6</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="T7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-6</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W7" s="7">
+        <v>6</v>
+      </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="2"/>
     </row>
@@ -1323,12 +1430,21 @@
         <v>7</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="T8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-7</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" s="7">
+        <v>7</v>
+      </c>
       <c r="X8" s="6"/>
       <c r="Y8" s="2"/>
     </row>
@@ -1388,12 +1504,21 @@
         <v>8</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="T9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-8</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" s="7">
+        <v>8</v>
+      </c>
       <c r="X9" s="6"/>
       <c r="Y9" s="2"/>
     </row>
@@ -1453,12 +1578,21 @@
         <v>9</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="T10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-9</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W10" s="7">
+        <v>9</v>
+      </c>
       <c r="X10" s="6"/>
       <c r="Y10" s="2"/>
     </row>
@@ -1518,12 +1652,21 @@
         <v>10</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="T11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-10</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W11" s="7">
+        <v>10</v>
+      </c>
       <c r="X11" s="6"/>
       <c r="Y11" s="2"/>
     </row>
@@ -1583,12 +1726,21 @@
         <v>11</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="T12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-11</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W12" s="7">
+        <v>11</v>
+      </c>
       <c r="X12" s="6"/>
       <c r="Y12" s="2"/>
     </row>
@@ -1648,12 +1800,21 @@
         <v>12</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="T13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-12</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W13" s="7">
+        <v>12</v>
+      </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="2"/>
     </row>
@@ -1713,12 +1874,21 @@
         <v>13</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="T14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-13</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W14" s="7">
+        <v>13</v>
+      </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="2"/>
     </row>
@@ -1778,12 +1948,21 @@
         <v>14</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="T15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-14</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W15" s="7">
+        <v>14</v>
+      </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="2"/>
     </row>
@@ -1843,12 +2022,21 @@
         <v>1</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="T16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K-GYX-15</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W16" s="7">
+        <v>15</v>
+      </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="2"/>
     </row>
@@ -1861,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273987B4-AC96-4F79-AB77-738CA38170C1}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1874,41 +2062,118 @@
     <col min="3" max="3" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:G23"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_upload/template/template.xlsx
+++ b/excel_upload/template/template.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\software\C_workspace\pycharm_64\bugcount_flask\excel_upload\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\software\C_workspace\bugcount_flask\excel_upload\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C20E69-9E67-467E-A900-616D1953A714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="备注" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,9 +45,6 @@
     <t>中间情况</t>
   </si>
   <si>
-    <t>李东东</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -405,18 +401,22 @@
   </si>
   <si>
     <t>K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,38 +533,38 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{4ABD6635-CC48-4298-ADA0-C246A6E3AFC2}"/>
-    <cellStyle name="常规 2 2" xfId="3" xr:uid="{34D840DB-5891-408B-8EB1-6355A6A9B71C}"/>
-    <cellStyle name="常规 2 2 2" xfId="4" xr:uid="{C67EAD9C-4534-47ED-8BF8-D59286AE9F69}"/>
-    <cellStyle name="常规 2 3" xfId="5" xr:uid="{C6574BD6-8B52-443D-BE3E-B0D2F6BC8BB5}"/>
-    <cellStyle name="常规 2 4" xfId="6" xr:uid="{D18F050F-FBC1-4F20-B8CF-7F7F2BE61B0F}"/>
-    <cellStyle name="常规 2 5" xfId="7" xr:uid="{50AE5420-8C18-4A77-A160-417DACDE407F}"/>
-    <cellStyle name="常规 2 6" xfId="9" xr:uid="{F1BA31B9-8E76-47D6-A8EA-0EE6F6A1964C}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{BD9915DF-94AF-4F02-B38D-0C3B396FE96F}"/>
-    <cellStyle name="常规 3 2" xfId="8" xr:uid="{80430592-7B8D-4C6F-B0A6-DAC7FFECE16B}"/>
-    <cellStyle name="常规 3 3" xfId="12" xr:uid="{1F906332-A6A9-4878-90D8-A16E9BAB6761}"/>
-    <cellStyle name="常规 3 4" xfId="13" xr:uid="{686F0105-33EA-47B3-8419-0A95B71D8EE6}"/>
-    <cellStyle name="常规 3 5" xfId="14" xr:uid="{84F11445-CE65-47FA-951B-FBC07085CEFA}"/>
-    <cellStyle name="常规 3 5 2" xfId="15" xr:uid="{1523F8BD-3A94-41AB-965A-0D1BCB59EF4A}"/>
-    <cellStyle name="常规 3 5 2 2" xfId="17" xr:uid="{3AD8C8C0-D258-4222-96D5-60DB497E09C3}"/>
-    <cellStyle name="常规 3 5 2 3" xfId="18" xr:uid="{A1CAD0ED-1A25-4B39-84BC-7BFF5FF7A960}"/>
-    <cellStyle name="常规 3 5 2 4" xfId="20" xr:uid="{5F4905C9-766D-480C-9901-DC5964DF99EF}"/>
-    <cellStyle name="常规 4" xfId="10" xr:uid="{42863FAB-D87F-4C9A-81A9-7CC8144F75A0}"/>
-    <cellStyle name="常规 5" xfId="11" xr:uid="{FCDAD5ED-4E3F-4B24-9F1E-7E253464298B}"/>
-    <cellStyle name="常规 6" xfId="16" xr:uid="{B4DFBA94-7738-43DA-B701-F1A95E4ABD3B}"/>
-    <cellStyle name="常规 6 2" xfId="19" xr:uid="{0C8889E1-6916-4F46-B616-0535422CDEB7}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="常规 2 2 2" xfId="4"/>
+    <cellStyle name="常规 2 3" xfId="5"/>
+    <cellStyle name="常规 2 4" xfId="6"/>
+    <cellStyle name="常规 2 5" xfId="7"/>
+    <cellStyle name="常规 2 6" xfId="9"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="8"/>
+    <cellStyle name="常规 3 3" xfId="12"/>
+    <cellStyle name="常规 3 4" xfId="13"/>
+    <cellStyle name="常规 3 5" xfId="14"/>
+    <cellStyle name="常规 3 5 2" xfId="15"/>
+    <cellStyle name="常规 3 5 2 2" xfId="17"/>
+    <cellStyle name="常规 3 5 2 3" xfId="18"/>
+    <cellStyle name="常规 3 5 2 4" xfId="20"/>
+    <cellStyle name="常规 4" xfId="10"/>
+    <cellStyle name="常规 5" xfId="11"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="常规 6 2" xfId="19"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,98 +841,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:W1"/>
+      <selection activeCell="O2" sqref="O2:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="32.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="17" max="17" width="9" style="3"/>
-    <col min="20" max="20" width="15.875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" style="8" customWidth="1"/>
     <col min="23" max="23" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="X1" s="6"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4">
         <v>1808</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>1</v>
@@ -974,11 +974,11 @@
         <v>5</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="Q2" s="7">
         <v>1</v>
       </c>
@@ -986,17 +986,17 @@
         <v>1</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="10" t="str">
+        <v>72</v>
+      </c>
+      <c r="T2" s="9" t="str">
         <f>U2&amp;"-"&amp;V2&amp;"-"&amp;W2</f>
         <v>K-GYX-1</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W2" s="7">
         <v>1</v>
@@ -1004,9 +1004,9 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4">
         <v>1808</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="5">
         <v>3</v>
@@ -1033,25 +1033,25 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q3" s="7">
         <v>2</v>
@@ -1060,17 +1060,17 @@
         <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="10" t="str">
+        <v>73</v>
+      </c>
+      <c r="T3" s="9" t="str">
         <f t="shared" ref="T3:T16" si="0">U3&amp;"-"&amp;V3&amp;"-"&amp;W3</f>
         <v>K-GYX-2</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W3" s="7">
         <v>2</v>
@@ -1078,9 +1078,9 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4">
         <v>1808</v>
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
@@ -1107,26 +1107,26 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="Q4" s="7">
         <v>3</v>
       </c>
@@ -1134,17 +1134,17 @@
         <v>3</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T4" s="10" t="str">
+        <v>74</v>
+      </c>
+      <c r="T4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-3</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W4" s="7">
         <v>3</v>
@@ -1152,9 +1152,9 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4">
         <v>1808</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
@@ -1181,25 +1181,25 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q5" s="7">
         <v>4</v>
@@ -1208,17 +1208,17 @@
         <v>4</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T5" s="10" t="str">
+        <v>75</v>
+      </c>
+      <c r="T5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-4</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W5" s="7">
         <v>4</v>
@@ -1226,9 +1226,9 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4">
         <v>1808</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="5">
         <v>3</v>
@@ -1255,25 +1255,25 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q6" s="7">
         <v>5</v>
@@ -1282,17 +1282,17 @@
         <v>5</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T6" s="10" t="str">
+        <v>76</v>
+      </c>
+      <c r="T6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-5</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W6" s="7">
         <v>5</v>
@@ -1300,9 +1300,9 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4">
         <v>1808</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
@@ -1329,25 +1329,25 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q7" s="7">
         <v>6</v>
@@ -1356,17 +1356,17 @@
         <v>6</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T7" s="10" t="str">
+        <v>77</v>
+      </c>
+      <c r="T7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-6</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W7" s="7">
         <v>6</v>
@@ -1374,9 +1374,9 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4">
         <v>1808</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="5">
         <v>3</v>
@@ -1403,25 +1403,25 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q8" s="7">
         <v>7</v>
@@ -1430,17 +1430,17 @@
         <v>7</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" s="10" t="str">
+        <v>78</v>
+      </c>
+      <c r="T8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-7</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W8" s="7">
         <v>7</v>
@@ -1448,9 +1448,9 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4">
         <v>1808</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
@@ -1477,25 +1477,25 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q9" s="7">
         <v>8</v>
@@ -1504,17 +1504,17 @@
         <v>8</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T9" s="10" t="str">
+        <v>79</v>
+      </c>
+      <c r="T9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-8</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W9" s="7">
         <v>8</v>
@@ -1522,9 +1522,9 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4">
         <v>1808</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="5">
         <v>3</v>
@@ -1551,25 +1551,25 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q10" s="7">
         <v>9</v>
@@ -1578,17 +1578,17 @@
         <v>9</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="10" t="str">
+        <v>80</v>
+      </c>
+      <c r="T10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-9</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W10" s="7">
         <v>9</v>
@@ -1596,9 +1596,9 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="4">
         <v>1808</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="5">
         <v>3</v>
@@ -1625,25 +1625,25 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q11" s="7">
         <v>10</v>
@@ -1652,17 +1652,17 @@
         <v>10</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="10" t="str">
+        <v>81</v>
+      </c>
+      <c r="T11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-10</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W11" s="7">
         <v>10</v>
@@ -1670,9 +1670,9 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4">
         <v>1808</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
@@ -1699,25 +1699,25 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q12" s="7">
         <v>11</v>
@@ -1726,17 +1726,17 @@
         <v>11</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T12" s="10" t="str">
+        <v>82</v>
+      </c>
+      <c r="T12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-11</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W12" s="7">
         <v>11</v>
@@ -1744,9 +1744,9 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4">
         <v>1808</v>
@@ -1755,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
@@ -1773,25 +1773,25 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q13" s="7">
         <v>12</v>
@@ -1800,17 +1800,17 @@
         <v>12</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T13" s="10" t="str">
+        <v>83</v>
+      </c>
+      <c r="T13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-12</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W13" s="7">
         <v>12</v>
@@ -1818,9 +1818,9 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="4">
         <v>1808</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F14" s="5">
         <v>3</v>
@@ -1847,25 +1847,25 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q14" s="7">
         <v>13</v>
@@ -1874,17 +1874,17 @@
         <v>13</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T14" s="10" t="str">
+        <v>84</v>
+      </c>
+      <c r="T14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-13</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W14" s="7">
         <v>13</v>
@@ -1892,9 +1892,9 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4">
         <v>1808</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="5">
         <v>3</v>
@@ -1921,25 +1921,25 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q15" s="7">
         <v>14</v>
@@ -1948,17 +1948,17 @@
         <v>14</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="T15" s="10" t="str">
+        <v>85</v>
+      </c>
+      <c r="T15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-14</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W15" s="7">
         <v>14</v>
@@ -1966,9 +1966,9 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="4">
         <v>1808</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F16" s="5">
         <v>3</v>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>1</v>
@@ -2010,11 +2010,11 @@
         <v>5</v>
       </c>
       <c r="O16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="Q16" s="7">
         <v>1</v>
       </c>
@@ -2022,17 +2022,17 @@
         <v>1</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T16" s="10" t="str">
+        <v>86</v>
+      </c>
+      <c r="T16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>K-GYX-15</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W16" s="7">
         <v>15</v>
@@ -2048,127 +2048,127 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273987B4-AC96-4F79-AB77-738CA38170C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
